--- a/table/table_merge/테이블명세_종합_20200117.xlsx
+++ b/table/table_merge/테이블명세_종합_20200117.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="609">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2473,6 +2473,14 @@
   </si>
   <si>
     <t>백넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contestImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회 이미지 파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2548,7 +2556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2641,6 +2649,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5296,17 +5307,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5503,7 +5514,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5939,10 +5950,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6259,13 +6270,29 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
+  <mergeCells count="18">
+    <mergeCell ref="F16:J16"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
@@ -6278,6 +6305,11 @@
     <mergeCell ref="F7:J7"/>
     <mergeCell ref="F8:J8"/>
     <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6291,8 +6323,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
